--- a/medicine/Enfance/Gouden_Uil/Gouden_Uil.xlsx
+++ b/medicine/Enfance/Gouden_Uil/Gouden_Uil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Gouden Boekenuil (anciennement Gouden Uil, la Chouette d'or) est un prix littéraire belge institué en 1995 qui récompense chaque année une œuvre littéraire originale en néerlandais.
@@ -512,10 +524,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jury est composé d'un président et de cinq critiques littéraires qui se prononcent sur cinq livres nommés[1].
-Le prix des lecteurs est décerné par un jury de 100 lecteurs flamands[2] qui se prononcent sur cinq livres nommés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jury est composé d'un président et de cinq critiques littéraires qui se prononcent sur cinq livres nommés.
+Le prix des lecteurs est décerné par un jury de 100 lecteurs flamands qui se prononcent sur cinq livres nommés.
 De Gouden Uil a évolué et n'a plus de catégorie ni pour la littérature jeunesse, ni pour les textes qui ne sont pas de la fiction.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2014 :
 Pour le Gouden Boekenuil 2014 : 25 000 € et une œuvre d'art de Philip Aguirre pour le lauréat ; 1 000 € pour chaque nommé.
@@ -577,7 +593,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1995
 Fiction : Adriaan van Dis - Indische Duinen
@@ -686,9 +704,11 @@
           <t>Disparition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix de littérature Fintro / Gouden Uil devrait disparaître en 2019[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix de littérature Fintro / Gouden Uil devrait disparaître en 2019.
 </t>
         </is>
       </c>
